--- a/excel文書/テスト文書１.xlsx
+++ b/excel文書/テスト文書１.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>お試しテスト文書</t>
     <rPh sb="1" eb="2">
@@ -25,6 +25,10 @@
     <rPh sb="6" eb="8">
       <t>ブンショ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -371,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -382,6 +386,16 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel文書/テスト文書１.xlsx
+++ b/excel文書/テスト文書１.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>お試しテスト文書</t>
     <rPh sb="1" eb="2">
@@ -29,6 +29,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -378,7 +382,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -395,7 +399,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excel文書/テスト文書１.xlsx
+++ b/excel文書/テスト文書１.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>お試しテスト文書</t>
     <rPh sb="1" eb="2">
@@ -29,10 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>aaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -379,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -397,11 +393,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel文書/テスト文書１.xlsx
+++ b/excel文書/テスト文書１.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>お試しテスト文書</t>
     <rPh sb="1" eb="2">
@@ -29,6 +29,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbbb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -375,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -393,6 +397,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel文書/テスト文書１.xlsx
+++ b/excel文書/テスト文書１.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>お試しテスト文書</t>
     <rPh sb="1" eb="2">
@@ -33,6 +33,10 @@
   </si>
   <si>
     <t>bbbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cccc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -379,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -402,6 +406,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel文書/テスト文書１.xlsx
+++ b/excel文書/テスト文書１.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>お試しテスト文書</t>
     <rPh sb="1" eb="2">
@@ -37,6 +37,10 @@
   </si>
   <si>
     <t>cccc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dddd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -411,6 +415,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel文書/テスト文書１.xlsx
+++ b/excel文書/テスト文書１.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>お試しテスト文書</t>
     <rPh sb="1" eb="2">
@@ -41,6 +41,10 @@
   </si>
   <si>
     <t>dddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eeee</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -387,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -418,6 +422,11 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excel文書/テスト文書１.xlsx
+++ b/excel文書/テスト文書１.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>お試しテスト文書</t>
     <rPh sb="1" eb="2">
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>eeee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ffff</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -391,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -427,6 +431,11 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/excel文書/テスト文書１.xlsx
+++ b/excel文書/テスト文書１.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>お試しテスト文書</t>
     <rPh sb="1" eb="2">
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>ffff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gggg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -395,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -436,6 +440,11 @@
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/excel文書/テスト文書１.xlsx
+++ b/excel文書/テスト文書１.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>お試しテスト文書</t>
     <rPh sb="1" eb="2">
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>gggg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hhhh</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -399,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -445,6 +449,11 @@
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/excel文書/テスト文書１.xlsx
+++ b/excel文書/テスト文書１.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>お試しテスト文書</t>
     <rPh sb="1" eb="2">
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>hhhh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんか</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -403,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
@@ -454,6 +458,11 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/excel文書/テスト文書１.xlsx
+++ b/excel文書/テスト文書１.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>お試しテスト文書</t>
     <rPh sb="1" eb="2">
@@ -61,6 +61,13 @@
   </si>
   <si>
     <t>なんか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連動するかな？</t>
+    <rPh sb="0" eb="2">
+      <t>レンドウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -407,60 +414,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
